--- a/site/observations-summary.xlsx
+++ b/site/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Profile</t>
   </si>
@@ -68,6 +68,21 @@
     <t>optional</t>
   </si>
   <si>
+    <t>gesamtbeurteilung</t>
+  </si>
+  <si>
+    <t>Gesamtbeurteilung</t>
+  </si>
+  <si>
+    <t>LOINC#72135-7</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
     <t>histologie</t>
   </si>
   <si>
@@ -75,6 +90,81 @@
   </si>
   <si>
     <t>LOINC#59847-4, International Classification of Diseases for Oncology, version 3.#null</t>
+  </si>
+  <si>
+    <t>status-fernmetastasen</t>
+  </si>
+  <si>
+    <t>StatusFernmetastasen</t>
+  </si>
+  <si>
+    <t>LOINC#42085-1</t>
+  </si>
+  <si>
+    <t>status-lymphknoten</t>
+  </si>
+  <si>
+    <t>Beurteilung Primärtumor</t>
+  </si>
+  <si>
+    <t>LOINC#21892-5</t>
+  </si>
+  <si>
+    <t>status-primaertumor</t>
+  </si>
+  <si>
+    <t>Status Primärtumor</t>
+  </si>
+  <si>
+    <t>LOINC#22035-0</t>
+  </si>
+  <si>
+    <t>tumorkonferenz-bemerkung</t>
+  </si>
+  <si>
+    <t>TumorkonferenzBemerkung</t>
+  </si>
+  <si>
+    <t>SNOMED CT#703852005</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>tumorkonferenz-fragestellung</t>
+  </si>
+  <si>
+    <t>TumorkonferenzFragestellung</t>
+  </si>
+  <si>
+    <t>SNOMED CT#103320006</t>
+  </si>
+  <si>
+    <t>tumorkonferenz-fragestellung-radiologie</t>
+  </si>
+  <si>
+    <t>TumorkonferenzFragestellungRadiologie</t>
+  </si>
+  <si>
+    <t>SNOMED CT#103320006:246061005=394914008</t>
+  </si>
+  <si>
+    <t>tumorkonferenz-situation</t>
+  </si>
+  <si>
+    <t>TumorkonferenzSituation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#276099005</t>
+  </si>
+  <si>
+    <t>tumorkonferenz-therapie-verlauf</t>
+  </si>
+  <si>
+    <t>TumorkonferenzTherapieVerlauf</t>
+  </si>
+  <si>
+    <t>SNOMED CT#308273005</t>
   </si>
 </sst>
 </file>
@@ -208,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -304,18 +394,333 @@
         <v>13</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>13</v>
       </c>
     </row>
